--- a/data/trans_camb/P18_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-14,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 5,12</t>
+          <t>-8,62; 8,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 13,82</t>
+          <t>-21,72; 2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 5,53</t>
+          <t>-10,95; 6,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 0,41</t>
+          <t>-40,42; -3,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 6,02</t>
+          <t>-2,25; 15,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 7,86</t>
+          <t>-7,99; 10,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,61</t>
+          <t>-8,7; 9,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,68</t>
+          <t>-15,82; 3,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,85</t>
+          <t>-2,19; 10,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 4,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 5,69</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-20,9; -2,72</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,56%</t>
+          <t>-17,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,61%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>-9,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-13,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 43,2</t>
+          <t>-9,88; 10,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 109,45</t>
+          <t>-25,93; 3,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 44,7</t>
+          <t>-12,51; 8,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 2,62</t>
+          <t>-46,95; -4,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 25,12</t>
+          <t>-2,96; 24,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 33,31</t>
+          <t>-10,89; 15,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 3,34</t>
+          <t>-11,71; 15,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 38,65</t>
+          <t>-21,76; 6,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 24,39</t>
+          <t>-2,78; 13,81</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,41; 5,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 7,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,16; -3,71</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 10,8</t>
+          <t>-6,57; 11,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 13,19</t>
+          <t>-13,5; 7,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 13,4</t>
+          <t>-15,86; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 2,38</t>
+          <t>-15,23; 4,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 10,73</t>
+          <t>-8,09; 11,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 15,75</t>
+          <t>-12,0; 7,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,63</t>
+          <t>-18,46; 2,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,99</t>
+          <t>-11,89; 8,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 12,23</t>
+          <t>-4,24; 9,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 5,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 0,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 4,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>-3,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,44%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>-3,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,92%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,1; 93,34</t>
+          <t>-7,41; 13,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 103,44</t>
+          <t>-15,42; 9,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 112,86</t>
+          <t>-18,38; 6,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 12,18</t>
+          <t>-17,28; 4,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 48,88</t>
+          <t>-9,89; 17,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 74,78</t>
+          <t>-14,97; 11,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 20,0</t>
+          <t>-22,86; 4,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 49,4</t>
+          <t>-15,24; 12,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 71,03</t>
+          <t>-5,09; 12,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 7,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,73; 0,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 5,35</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,1</t>
+          <t>-34,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,85</t>
+          <t>-22,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-46,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-20,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>-22,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-16,17</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-21,59</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-34,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 18,01</t>
+          <t>-35,61; 5,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 42,19</t>
+          <t>-69,11; -8,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 27,68</t>
+          <t>-49,58; -1,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 5,29</t>
+          <t>-76,48; -18,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 17,74</t>
+          <t>0,21; 29,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 26,81</t>
+          <t>-14,17; 20,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 8,8</t>
+          <t>-40,5; -0,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 24,91</t>
+          <t>-43,64; -2,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 22,81</t>
+          <t>-12,47; 11,59</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-38,81; -1,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-36,12; -5,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-56,09; -16,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>188,6%</t>
+          <t>-37,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>101,07%</t>
+          <t>-24,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-44,26%</t>
+          <t>-49,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-24,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>105,59%</t>
+          <t>-26,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,23%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-24,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-39,13%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 294,32</t>
+          <t>-38,02; 5,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,95; 711,43</t>
+          <t>-71,55; -10,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 465,46</t>
+          <t>-51,86; -1,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,8; 99,4</t>
+          <t>-79,8; -19,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,5; 285,29</t>
+          <t>0,38; 44,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 337,45</t>
+          <t>-15,97; 27,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,26; 103,34</t>
+          <t>-45,66; -1,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 280,45</t>
+          <t>-49,67; -3,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 290,21</t>
+          <t>-13,16; 14,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-43,33; -2,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,33; -6,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-60,78; -20,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-14,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-10,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,73</t>
+          <t>-6,38; 5,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,65</t>
+          <t>-17,77; -0,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,28</t>
+          <t>-13,73; -0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,1</t>
+          <t>-26,85; -5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,41</t>
+          <t>-0,26; 11,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 9,93</t>
+          <t>-6,96; 5,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,49</t>
+          <t>-11,61; 1,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,39</t>
+          <t>-13,55; -0,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,0</t>
+          <t>-1,42; 6,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 1,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,1; -0,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; -5,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>-9,35%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,89%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 44,99</t>
+          <t>-7,2; 6,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 97,88</t>
+          <t>-20,46; -0,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 62,27</t>
+          <t>-15,64; -0,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 0,6</t>
+          <t>-30,83; -6,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 28,65</t>
+          <t>-0,37; 16,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 43,08</t>
+          <t>-9,28; 8,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 3,25</t>
+          <t>-15,24; 1,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 39,45</t>
+          <t>-17,84; -0,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 37,04</t>
+          <t>-1,81; 9,06</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 1,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; -0,19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,49; -6,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
